--- a/List Kebutuhan_Kelompok4_RKC.xlsx
+++ b/List Kebutuhan_Kelompok4_RKC.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\6 - [MATKUL] RK\Elisitasi\RKC_Elisitasi_Kel4\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\6 - [MATKUL] RK\Elisitasi\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C7ED305-483A-40B5-ADC3-6AFEA9C17BA2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{510238D7-0335-4D6C-B95D-ECAAA5645263}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="40">
   <si>
     <t>Tugas Analisa Sistem</t>
   </si>
@@ -75,6 +75,41 @@
   </si>
   <si>
     <t>F 3.4 Sistem dapat memungkinkan pengguna untuk mencari item berdasarkan kategori khusus (komik pilihan, novel terlaris, buku terpopuler, harga spesial, dan lainnya)</t>
+  </si>
+  <si>
+    <t>4. Pengguna bisa memasukkan item dalam keranjang</t>
+  </si>
+  <si>
+    <t>Operasional, performa, keamanan</t>
+  </si>
+  <si>
+    <t>5. Pengguna dapat melakukan transaksi pembelian 
+item yang tersedia</t>
+  </si>
+  <si>
+    <t>F 5.1 Sistem memungkinkan pengguna untuk melihat ringkasan pemesanan(item yang dibeli beserta jumlahnya, sub total, biaya kirim, biaya asuransi, diskon pengiriman, diskon belanja, potongan kupon, total pembayaran)</t>
+  </si>
+  <si>
+    <t>F 5.2 Sistem dapat memungkinkan pengguna untuk memasukkan kode promo</t>
+  </si>
+  <si>
+    <t>F 5.3 Sistem memungkinkan pengguna untuk menambahkan tujuan pengiriman(Nama Alamat, Nama Penerima, No Handpohone, Provinsi, Kota/Kabupaten, Kecamatan, Kode Pos, Alamat lengkap, koordinat lokasi)</t>
+  </si>
+  <si>
+    <t>F 5.4 Sistem memungkinkan pengguna untuk memilih metode pengiriman (standar logistic, same day delivery) dengan ataupun tanpa asuransi</t>
+  </si>
+  <si>
+    <t>F 5.5 Sistem memungkinkan pengguna untuk memilih metode pembayaran (Kartu kredit, transfer bank, pembayaran instan, uang elektronik)</t>
+  </si>
+  <si>
+    <t>Memudahkan admin 
+(pihak Gramedia) untuk 
+melakukan manajemen
+terhadap informasi 
+item yang dijual</t>
+  </si>
+  <si>
+    <t>Operasional, keamanan, efisiensi</t>
   </si>
   <si>
     <r>
@@ -239,6 +274,120 @@
       </rPr>
       <t>item</t>
     </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">F 4.1 Sistem memungkinkan pengguna melihat daftar beserta detail (judul, penulis, </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="major"/>
+      </rPr>
+      <t>brand</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="major"/>
+      </rPr>
+      <t xml:space="preserve">, subtotal, total seluruh) </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="major"/>
+      </rPr>
+      <t>item</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="major"/>
+      </rPr>
+      <t xml:space="preserve"> yang telah dimasukkan dalam keranjang</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">F 4.2 Sistem memungkinkan pengguna menambah atau mengurangi jumlah masing-masing </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="major"/>
+      </rPr>
+      <t xml:space="preserve">item </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="major"/>
+      </rPr>
+      <t>pada keranjang</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">F 4.3 Sistem memungkinkan pengguna menghapus beberapa atau seluruh </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="major"/>
+      </rPr>
+      <t>item</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="major"/>
+      </rPr>
+      <t xml:space="preserve"> yang telah dimasukkan pada keranjang</t>
+    </r>
+  </si>
+  <si>
+    <t>6. Admin dapat mengatur item yang ada di toko</t>
+  </si>
+  <si>
+    <t>F 6.1 Sistem memungkinkan admin untuk menambahkan item baru</t>
+  </si>
+  <si>
+    <t>F 6.2 Sistem memungkinkan admin untuk mengubah data item yang sudah ada</t>
+  </si>
+  <si>
+    <t>F 6.3 Sistem memungkinkan admin untuk menghapus item yang sudah ada</t>
+  </si>
+  <si>
+    <t>F 6.4 Sistem memungkinkan admin untuk mengkategorikan item</t>
   </si>
 </sst>
 </file>
@@ -743,8 +892,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F997"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.59765625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -768,7 +917,7 @@
     </row>
     <row r="2" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="24" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="B2" s="22"/>
       <c r="C2" s="22"/>
@@ -827,7 +976,7 @@
       <c r="A7" s="18"/>
       <c r="B7" s="19"/>
       <c r="C7" s="7" t="s">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="D7" s="19"/>
     </row>
@@ -837,7 +986,7 @@
         <v>13</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="D8" s="20" t="s">
         <v>14</v>
@@ -847,7 +996,7 @@
       <c r="A9" s="18"/>
       <c r="B9" s="18"/>
       <c r="C9" s="5" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="D9" s="18"/>
     </row>
@@ -855,7 +1004,7 @@
       <c r="A10" s="18"/>
       <c r="B10" s="18"/>
       <c r="C10" s="6" t="s">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="D10" s="18"/>
     </row>
@@ -871,80 +1020,118 @@
       <c r="A12" s="18"/>
       <c r="B12" s="19"/>
       <c r="C12" s="5" t="s">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="D12" s="19"/>
     </row>
-    <row r="13" spans="1:6" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A13" s="18"/>
-      <c r="B13" s="25"/>
-      <c r="C13" s="8"/>
-      <c r="D13" s="20"/>
-    </row>
-    <row r="14" spans="1:6" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="B13" s="25" t="s">
+        <v>16</v>
+      </c>
+      <c r="C13" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="D13" s="20" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A14" s="18"/>
       <c r="B14" s="18"/>
-      <c r="C14" s="9"/>
+      <c r="C14" s="9" t="s">
+        <v>33</v>
+      </c>
       <c r="D14" s="18"/>
     </row>
-    <row r="15" spans="1:6" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A15" s="18"/>
       <c r="B15" s="19"/>
-      <c r="C15" s="10"/>
+      <c r="C15" s="10" t="s">
+        <v>34</v>
+      </c>
       <c r="D15" s="19"/>
     </row>
-    <row r="16" spans="1:6" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" ht="43.2" x14ac:dyDescent="0.25">
       <c r="A16" s="18"/>
-      <c r="B16" s="25"/>
-      <c r="C16" s="11"/>
-      <c r="D16" s="20"/>
+      <c r="B16" s="25" t="s">
+        <v>18</v>
+      </c>
+      <c r="C16" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="D16" s="20" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="17" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A17" s="18"/>
       <c r="B17" s="18"/>
-      <c r="C17" s="12"/>
+      <c r="C17" s="12" t="s">
+        <v>20</v>
+      </c>
       <c r="D17" s="18"/>
     </row>
-    <row r="18" spans="1:4" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4" ht="43.2" x14ac:dyDescent="0.25">
       <c r="A18" s="18"/>
       <c r="B18" s="18"/>
-      <c r="C18" s="6"/>
+      <c r="C18" s="6" t="s">
+        <v>21</v>
+      </c>
       <c r="D18" s="18"/>
     </row>
-    <row r="19" spans="1:4" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A19" s="18"/>
       <c r="B19" s="18"/>
-      <c r="C19" s="6"/>
+      <c r="C19" s="6" t="s">
+        <v>22</v>
+      </c>
       <c r="D19" s="18"/>
     </row>
-    <row r="20" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A20" s="19"/>
       <c r="B20" s="19"/>
-      <c r="C20" s="13"/>
+      <c r="C20" s="13" t="s">
+        <v>23</v>
+      </c>
       <c r="D20" s="19"/>
     </row>
     <row r="21" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A21" s="30"/>
-      <c r="B21" s="29"/>
-      <c r="C21" s="14"/>
-      <c r="D21" s="17"/>
+      <c r="A21" s="30" t="s">
+        <v>24</v>
+      </c>
+      <c r="B21" s="29" t="s">
+        <v>35</v>
+      </c>
+      <c r="C21" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="D21" s="17" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="22" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="18"/>
       <c r="B22" s="18"/>
-      <c r="C22" s="14"/>
+      <c r="C22" s="14" t="s">
+        <v>37</v>
+      </c>
       <c r="D22" s="18"/>
     </row>
     <row r="23" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="18"/>
       <c r="B23" s="18"/>
-      <c r="C23" s="14"/>
+      <c r="C23" s="14" t="s">
+        <v>38</v>
+      </c>
       <c r="D23" s="18"/>
     </row>
     <row r="24" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="18"/>
       <c r="B24" s="19"/>
-      <c r="C24" s="4"/>
+      <c r="C24" s="4" t="s">
+        <v>39</v>
+      </c>
       <c r="D24" s="19"/>
     </row>
     <row r="25" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">

--- a/List Kebutuhan_Kelompok4_RKC.xlsx
+++ b/List Kebutuhan_Kelompok4_RKC.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22624"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\6 - [MATKUL] RK\Elisitasi\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\aaKuliahaa\Semester 6\RK\Git\RKC_Elisitasi_Kel4\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{510238D7-0335-4D6C-B95D-ECAAA5645263}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A7DAC79F-AE05-4095-BC50-8E6348F6C2F4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,16 +16,11 @@
     <sheet name="List Kebutuhan" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="0"/>
-  <extLst>
-    <ext uri="GoogleSheetsCustomDataVersion1">
-      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId5" roundtripDataSignature="AMtx7mhM555Tm/CYd85gpRgOx9DH3Sg/qA=="/>
-    </ext>
-  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="55">
   <si>
     <t>Tugas Analisa Sistem</t>
   </si>
@@ -388,6 +383,52 @@
   </si>
   <si>
     <t>F 6.4 Sistem memungkinkan admin untuk mengkategorikan item</t>
+  </si>
+  <si>
+    <t>7. Admin bisa mengatur dan memantau transaksi yang ada di toko</t>
+  </si>
+  <si>
+    <t>F 7.1 Sistem memungkinkan admin untuk melihat data penjualan tiap item</t>
+  </si>
+  <si>
+    <t>Operasional, keamanan</t>
+  </si>
+  <si>
+    <t>F 7.2 Sistem memungkinkan admin untuk mengetahui statistik transaksi penjualan per satuan waktu</t>
+  </si>
+  <si>
+    <t>F 7.3 Sistem memungkinkan admin untuk mengetahui statistik pengunjung website</t>
+  </si>
+  <si>
+    <t>F 7.4 Sistem memungkinkan admin untuk melihat item terlaris per kategori atau per satuan waktu</t>
+  </si>
+  <si>
+    <t>F 7.5 Sistem memungkinkan admin untuk menerima 
+report atau laporan penjualan per bulan</t>
+  </si>
+  <si>
+    <t>8. Admin dapat mengatur promo yang sedang atau akan berlangsung</t>
+  </si>
+  <si>
+    <t>F 8.1 Sistem memungkinkan admin untuk menambahkan promo baru</t>
+  </si>
+  <si>
+    <t>F 8.2 Sistem memungkinkan admin untuk mengubah data promo yang sudah ada</t>
+  </si>
+  <si>
+    <t>F 8.3 Sistem memungkinkan admin untuk menghapus promo yang sudah ada</t>
+  </si>
+  <si>
+    <t>F 8.4 Sistem memungkinkan admin untuk menentukan kapan dan berapa lama promo berlangsung</t>
+  </si>
+  <si>
+    <t>9. Admin dapat memantau dan berinteraksi dengan akun pembeli</t>
+  </si>
+  <si>
+    <t xml:space="preserve">F 9.1 Sistem memungkinkan admin untuk melihat data transaksi pengunjung toko </t>
+  </si>
+  <si>
+    <t>F 9.2 Sistem memungkinkan admin untuk melihat pertanyaan atau complalin yang diajukan pembeli</t>
   </si>
 </sst>
 </file>
@@ -593,7 +634,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -632,22 +673,13 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -669,11 +701,23 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -892,8 +936,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F997"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+    <sheetView tabSelected="1" topLeftCell="A19" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C25" sqref="C25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.59765625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -908,20 +952,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="27.6" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A1" s="21" t="s">
+      <c r="A1" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="22"/>
-      <c r="C1" s="22"/>
-      <c r="D1" s="23"/>
+      <c r="B1" s="19"/>
+      <c r="C1" s="19"/>
+      <c r="D1" s="20"/>
     </row>
     <row r="2" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="24" t="s">
+      <c r="A2" s="21" t="s">
         <v>26</v>
       </c>
-      <c r="B2" s="22"/>
-      <c r="C2" s="22"/>
-      <c r="D2" s="23"/>
+      <c r="B2" s="19"/>
+      <c r="C2" s="19"/>
+      <c r="D2" s="20"/>
     </row>
     <row r="3" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
@@ -938,7 +982,7 @@
       </c>
     </row>
     <row r="4" spans="1:6" ht="28.8" x14ac:dyDescent="0.25">
-      <c r="A4" s="27" t="s">
+      <c r="A4" s="24" t="s">
         <v>5</v>
       </c>
       <c r="B4" s="3" t="s">
@@ -953,252 +997,286 @@
       <c r="F4" s="1"/>
     </row>
     <row r="5" spans="1:6" ht="28.8" x14ac:dyDescent="0.25">
-      <c r="A5" s="18"/>
-      <c r="B5" s="25" t="s">
+      <c r="A5" s="15"/>
+      <c r="B5" s="22" t="s">
         <v>9</v>
       </c>
       <c r="C5" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="D5" s="26" t="s">
+      <c r="D5" s="23" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="A6" s="18"/>
-      <c r="B6" s="18"/>
+      <c r="A6" s="15"/>
+      <c r="B6" s="15"/>
       <c r="C6" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="D6" s="18"/>
+      <c r="D6" s="15"/>
     </row>
     <row r="7" spans="1:6" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="A7" s="18"/>
-      <c r="B7" s="19"/>
+      <c r="A7" s="15"/>
+      <c r="B7" s="16"/>
       <c r="C7" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="D7" s="19"/>
+      <c r="D7" s="16"/>
     </row>
     <row r="8" spans="1:6" ht="28.8" x14ac:dyDescent="0.25">
-      <c r="A8" s="18"/>
-      <c r="B8" s="28" t="s">
+      <c r="A8" s="15"/>
+      <c r="B8" s="25" t="s">
         <v>13</v>
       </c>
       <c r="C8" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="D8" s="20" t="s">
+      <c r="D8" s="26" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="28.8" x14ac:dyDescent="0.25">
-      <c r="A9" s="18"/>
-      <c r="B9" s="18"/>
+      <c r="A9" s="15"/>
+      <c r="B9" s="15"/>
       <c r="C9" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="D9" s="18"/>
+      <c r="D9" s="15"/>
     </row>
     <row r="10" spans="1:6" ht="28.8" x14ac:dyDescent="0.25">
-      <c r="A10" s="18"/>
-      <c r="B10" s="18"/>
+      <c r="A10" s="15"/>
+      <c r="B10" s="15"/>
       <c r="C10" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="D10" s="18"/>
+      <c r="D10" s="15"/>
     </row>
     <row r="11" spans="1:6" ht="28.8" x14ac:dyDescent="0.25">
-      <c r="A11" s="18"/>
-      <c r="B11" s="18"/>
+      <c r="A11" s="15"/>
+      <c r="B11" s="15"/>
       <c r="C11" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="D11" s="18"/>
+      <c r="D11" s="15"/>
     </row>
     <row r="12" spans="1:6" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="A12" s="18"/>
-      <c r="B12" s="19"/>
+      <c r="A12" s="15"/>
+      <c r="B12" s="16"/>
       <c r="C12" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="D12" s="19"/>
+      <c r="D12" s="16"/>
     </row>
     <row r="13" spans="1:6" ht="28.8" x14ac:dyDescent="0.25">
-      <c r="A13" s="18"/>
-      <c r="B13" s="25" t="s">
+      <c r="A13" s="15"/>
+      <c r="B13" s="22" t="s">
         <v>16</v>
       </c>
       <c r="C13" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="D13" s="20" t="s">
+      <c r="D13" s="26" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="14" spans="1:6" ht="28.8" x14ac:dyDescent="0.25">
-      <c r="A14" s="18"/>
-      <c r="B14" s="18"/>
+      <c r="A14" s="15"/>
+      <c r="B14" s="15"/>
       <c r="C14" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="D14" s="18"/>
+      <c r="D14" s="15"/>
     </row>
     <row r="15" spans="1:6" ht="28.8" x14ac:dyDescent="0.25">
-      <c r="A15" s="18"/>
-      <c r="B15" s="19"/>
+      <c r="A15" s="15"/>
+      <c r="B15" s="16"/>
       <c r="C15" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="D15" s="19"/>
+      <c r="D15" s="16"/>
     </row>
     <row r="16" spans="1:6" ht="43.2" x14ac:dyDescent="0.25">
-      <c r="A16" s="18"/>
-      <c r="B16" s="25" t="s">
+      <c r="A16" s="15"/>
+      <c r="B16" s="22" t="s">
         <v>18</v>
       </c>
       <c r="C16" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="D16" s="20" t="s">
+      <c r="D16" s="26" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A17" s="18"/>
-      <c r="B17" s="18"/>
+      <c r="A17" s="15"/>
+      <c r="B17" s="15"/>
       <c r="C17" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="D17" s="18"/>
+      <c r="D17" s="15"/>
     </row>
     <row r="18" spans="1:4" ht="43.2" x14ac:dyDescent="0.25">
-      <c r="A18" s="18"/>
-      <c r="B18" s="18"/>
+      <c r="A18" s="15"/>
+      <c r="B18" s="15"/>
       <c r="C18" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="D18" s="18"/>
+      <c r="D18" s="15"/>
     </row>
     <row r="19" spans="1:4" ht="28.8" x14ac:dyDescent="0.25">
-      <c r="A19" s="18"/>
-      <c r="B19" s="18"/>
+      <c r="A19" s="15"/>
+      <c r="B19" s="15"/>
       <c r="C19" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="D19" s="18"/>
+      <c r="D19" s="15"/>
     </row>
     <row r="20" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A20" s="19"/>
-      <c r="B20" s="19"/>
+      <c r="A20" s="16"/>
+      <c r="B20" s="16"/>
       <c r="C20" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="D20" s="19"/>
-    </row>
-    <row r="21" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A21" s="30" t="s">
+      <c r="D20" s="16"/>
+    </row>
+    <row r="21" spans="1:4" ht="26.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="B21" s="29" t="s">
+      <c r="B21" s="14" t="s">
         <v>35</v>
       </c>
-      <c r="C21" s="14" t="s">
+      <c r="C21" s="28" t="s">
         <v>36</v>
       </c>
-      <c r="D21" s="17" t="s">
+      <c r="D21" s="27" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="22" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="18"/>
-      <c r="B22" s="18"/>
-      <c r="C22" s="14" t="s">
+    <row r="22" spans="1:4" ht="26.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="15"/>
+      <c r="B22" s="15"/>
+      <c r="C22" s="28" t="s">
         <v>37</v>
       </c>
-      <c r="D22" s="18"/>
-    </row>
-    <row r="23" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="18"/>
-      <c r="B23" s="18"/>
-      <c r="C23" s="14" t="s">
+      <c r="D22" s="15"/>
+    </row>
+    <row r="23" spans="1:4" ht="26.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="15"/>
+      <c r="B23" s="15"/>
+      <c r="C23" s="28" t="s">
         <v>38</v>
       </c>
-      <c r="D23" s="18"/>
-    </row>
-    <row r="24" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="18"/>
-      <c r="B24" s="19"/>
-      <c r="C24" s="4" t="s">
+      <c r="D23" s="15"/>
+    </row>
+    <row r="24" spans="1:4" ht="26.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="15"/>
+      <c r="B24" s="16"/>
+      <c r="C24" s="29" t="s">
         <v>39</v>
       </c>
-      <c r="D24" s="19"/>
-    </row>
-    <row r="25" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="18"/>
-      <c r="B25" s="29"/>
-      <c r="C25" s="14"/>
-      <c r="D25" s="17"/>
-    </row>
-    <row r="26" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="18"/>
-      <c r="B26" s="18"/>
-      <c r="C26" s="15"/>
-      <c r="D26" s="18"/>
-    </row>
-    <row r="27" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="18"/>
-      <c r="B27" s="18"/>
-      <c r="C27" s="14"/>
-      <c r="D27" s="18"/>
-    </row>
-    <row r="28" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="18"/>
-      <c r="B28" s="18"/>
-      <c r="C28" s="15"/>
-      <c r="D28" s="18"/>
-    </row>
-    <row r="29" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="18"/>
-      <c r="B29" s="19"/>
-      <c r="C29" s="16"/>
-      <c r="D29" s="19"/>
-    </row>
-    <row r="30" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="18"/>
-      <c r="B30" s="29"/>
-      <c r="C30" s="14"/>
-      <c r="D30" s="17"/>
-    </row>
-    <row r="31" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="18"/>
-      <c r="B31" s="18"/>
-      <c r="C31" s="14"/>
-      <c r="D31" s="18"/>
-    </row>
-    <row r="32" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="18"/>
-      <c r="B32" s="18"/>
-      <c r="C32" s="14"/>
-      <c r="D32" s="18"/>
-    </row>
-    <row r="33" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="18"/>
-      <c r="B33" s="19"/>
-      <c r="C33" s="14"/>
-      <c r="D33" s="19"/>
-    </row>
-    <row r="34" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A34" s="18"/>
-      <c r="B34" s="29"/>
-      <c r="C34" s="14"/>
-      <c r="D34" s="17"/>
-    </row>
-    <row r="35" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A35" s="19"/>
-      <c r="B35" s="19"/>
-      <c r="C35" s="14"/>
-      <c r="D35" s="19"/>
+      <c r="D24" s="16"/>
+    </row>
+    <row r="25" spans="1:4" ht="26.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="15"/>
+      <c r="B25" s="14" t="s">
+        <v>40</v>
+      </c>
+      <c r="C25" s="28" t="s">
+        <v>41</v>
+      </c>
+      <c r="D25" s="27" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" ht="26.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="15"/>
+      <c r="B26" s="15"/>
+      <c r="C26" s="30" t="s">
+        <v>43</v>
+      </c>
+      <c r="D26" s="15"/>
+    </row>
+    <row r="27" spans="1:4" ht="26.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="15"/>
+      <c r="B27" s="15"/>
+      <c r="C27" s="28" t="s">
+        <v>44</v>
+      </c>
+      <c r="D27" s="15"/>
+    </row>
+    <row r="28" spans="1:4" ht="26.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="15"/>
+      <c r="B28" s="15"/>
+      <c r="C28" s="30" t="s">
+        <v>45</v>
+      </c>
+      <c r="D28" s="15"/>
+    </row>
+    <row r="29" spans="1:4" ht="26.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="15"/>
+      <c r="B29" s="16"/>
+      <c r="C29" s="31" t="s">
+        <v>46</v>
+      </c>
+      <c r="D29" s="16"/>
+    </row>
+    <row r="30" spans="1:4" ht="26.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="15"/>
+      <c r="B30" s="14" t="s">
+        <v>47</v>
+      </c>
+      <c r="C30" s="28" t="s">
+        <v>48</v>
+      </c>
+      <c r="D30" s="27" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" ht="26.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="15"/>
+      <c r="B31" s="15"/>
+      <c r="C31" s="28" t="s">
+        <v>49</v>
+      </c>
+      <c r="D31" s="15"/>
+    </row>
+    <row r="32" spans="1:4" ht="26.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="15"/>
+      <c r="B32" s="15"/>
+      <c r="C32" s="28" t="s">
+        <v>50</v>
+      </c>
+      <c r="D32" s="15"/>
+    </row>
+    <row r="33" spans="1:4" ht="26.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="15"/>
+      <c r="B33" s="16"/>
+      <c r="C33" s="28" t="s">
+        <v>51</v>
+      </c>
+      <c r="D33" s="16"/>
+    </row>
+    <row r="34" spans="1:4" ht="26.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="15"/>
+      <c r="B34" s="14" t="s">
+        <v>52</v>
+      </c>
+      <c r="C34" s="28" t="s">
+        <v>53</v>
+      </c>
+      <c r="D34" s="27" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" ht="28.8" x14ac:dyDescent="0.25">
+      <c r="A35" s="16"/>
+      <c r="B35" s="16"/>
+      <c r="C35" s="28" t="s">
+        <v>54</v>
+      </c>
+      <c r="D35" s="16"/>
     </row>
     <row r="36" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="37" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2164,11 +2242,12 @@
     <row r="997" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="B21:B24"/>
-    <mergeCell ref="B34:B35"/>
-    <mergeCell ref="B30:B33"/>
-    <mergeCell ref="B25:B29"/>
-    <mergeCell ref="A21:A35"/>
+    <mergeCell ref="D21:D24"/>
+    <mergeCell ref="D13:D15"/>
+    <mergeCell ref="D16:D20"/>
+    <mergeCell ref="D34:D35"/>
+    <mergeCell ref="D30:D33"/>
+    <mergeCell ref="D25:D29"/>
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="A2:D2"/>
     <mergeCell ref="B5:B7"/>
@@ -2178,12 +2257,11 @@
     <mergeCell ref="B16:B20"/>
     <mergeCell ref="B8:B12"/>
     <mergeCell ref="D8:D12"/>
-    <mergeCell ref="D21:D24"/>
-    <mergeCell ref="D34:D35"/>
-    <mergeCell ref="D30:D33"/>
-    <mergeCell ref="D25:D29"/>
-    <mergeCell ref="D13:D15"/>
-    <mergeCell ref="D16:D20"/>
+    <mergeCell ref="B21:B24"/>
+    <mergeCell ref="A21:A35"/>
+    <mergeCell ref="B34:B35"/>
+    <mergeCell ref="B30:B33"/>
+    <mergeCell ref="B25:B29"/>
   </mergeCells>
   <conditionalFormatting sqref="A4:A20">
     <cfRule type="colorScale" priority="1">
